--- a/gamedaily/topic-fix.xlsx
+++ b/gamedaily/topic-fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydesk\git\game1night\2\gamedaily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A707B6A-8414-4E40-9ECA-C20DA320F29D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F78361-1807-4500-A481-D4A2FDD5B241}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE488E7B-B399-4947-B8FB-F010B48E0251}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t>关键词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,118 @@
   </si>
   <si>
     <t>环比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2元</t>
+  </si>
+  <si>
+    <t>3元</t>
+  </si>
+  <si>
+    <t>4元</t>
+  </si>
+  <si>
+    <t>5元</t>
+  </si>
+  <si>
+    <t>6元</t>
+  </si>
+  <si>
+    <t>7元</t>
+  </si>
+  <si>
+    <t>8元</t>
+  </si>
+  <si>
+    <t>9元</t>
+  </si>
+  <si>
+    <t>万元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万美元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万欧元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿美元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿欧元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千美元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千欧元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曝光</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B629B35-FB0A-463B-8067-A275E1A6B003}">
-  <dimension ref="B1:F29"/>
+  <dimension ref="B1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -598,9 +710,6 @@
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
@@ -616,9 +725,6 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -634,9 +740,6 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
@@ -652,9 +755,6 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
@@ -670,29 +770,23 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="str">
         <f>"'"&amp;C6&amp;"': ['"&amp;D6&amp;"', "&amp;E6&amp;"],"</f>
-        <v>'卖': ['交易', 3],</v>
+        <v>'概念图': ['人物', 2],</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>28</v>
@@ -702,15 +796,12 @@
       </c>
       <c r="F7" s="2" t="str">
         <f>"'"&amp;C7&amp;"': ['"&amp;D7&amp;"', "&amp;E7&amp;"],"</f>
-        <v>'买': ['交易', 3],</v>
+        <v>'卖': ['交易', 3],</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>28</v>
@@ -720,394 +811,737 @@
       </c>
       <c r="F8" s="2" t="str">
         <f>"'"&amp;C8&amp;"': ['"&amp;D8&amp;"', "&amp;E8&amp;"],"</f>
-        <v>'价': ['交易', 3],</v>
+        <v>'买': ['交易', 3],</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="str">
         <f>"'"&amp;C9&amp;"': ['"&amp;D9&amp;"', "&amp;E9&amp;"],"</f>
-        <v>'年': ['历史', 4],</v>
+        <v>'价': ['交易', 3],</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="str">
         <f>"'"&amp;C10&amp;"': ['"&amp;D10&amp;"', "&amp;E10&amp;"],"</f>
-        <v>'月': ['历史', 4],</v>
+        <v>'奖金': ['交易', 3],</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="str">
         <f>"'"&amp;C11&amp;"': ['"&amp;D11&amp;"', "&amp;E11&amp;"],"</f>
-        <v>'曾经': ['历史', 4],</v>
+        <v>'美元': ['交易', 3],</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2" t="str">
         <f>"'"&amp;C12&amp;"': ['"&amp;D12&amp;"', "&amp;E12&amp;"],"</f>
-        <v>'%': ['数据', 5],</v>
+        <v>'欧元': ['交易', 3],</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
-        <v>12</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2" t="str">
         <f>"'"&amp;C13&amp;"': ['"&amp;D13&amp;"', "&amp;E13&amp;"],"</f>
-        <v>'增长': ['数据', 5],</v>
+        <v>'0元': ['交易', 3],</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
-        <v>13</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14" s="2" t="str">
         <f>"'"&amp;C14&amp;"': ['"&amp;D14&amp;"', "&amp;E14&amp;"],"</f>
-        <v>'减少': ['数据', 5],</v>
+        <v>'1元': ['交易', 3],</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
-        <v>14</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F15" s="2" t="str">
         <f>"'"&amp;C15&amp;"': ['"&amp;D15&amp;"', "&amp;E15&amp;"],"</f>
-        <v>'同比': ['数据', 5],</v>
+        <v>'2元': ['交易', 3],</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
-        <v>15</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F16" s="2" t="str">
         <f>"'"&amp;C16&amp;"': ['"&amp;D16&amp;"', "&amp;E16&amp;"],"</f>
-        <v>'环比': ['数据', 5],</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
-        <v>16</v>
-      </c>
+        <v>'3元': ['交易', 3],</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F17" s="2" t="str">
         <f>"'"&amp;C17&amp;"': ['"&amp;D17&amp;"', "&amp;E17&amp;"],"</f>
-        <v>'？': ['讨论', 6],</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
-        <v>17</v>
-      </c>
+        <v>'4元': ['交易', 3],</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18" s="2" t="str">
         <f>"'"&amp;C18&amp;"': ['"&amp;D18&amp;"', "&amp;E18&amp;"],"</f>
-        <v>'?': ['讨论', 6],</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
-        <v>18</v>
-      </c>
+        <v>'5元': ['交易', 3],</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F19" s="2" t="str">
         <f>"'"&amp;C19&amp;"': ['"&amp;D19&amp;"', "&amp;E19&amp;"],"</f>
-        <v>'吗': ['讨论', 6],</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
-        <v>19</v>
-      </c>
+        <v>'6元': ['交易', 3],</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F20" s="2" t="str">
         <f>"'"&amp;C20&amp;"': ['"&amp;D20&amp;"', "&amp;E20&amp;"],"</f>
-        <v>'如何': ['讨论', 6],</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
-        <v>20</v>
-      </c>
+        <v>'7元': ['交易', 3],</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F21" s="2" t="str">
         <f>"'"&amp;C21&amp;"': ['"&amp;D21&amp;"', "&amp;E21&amp;"],"</f>
-        <v>'什么': ['讨论', 6],</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="1">
-        <v>21</v>
-      </c>
+        <v>'8元': ['交易', 3],</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F22" s="2" t="str">
         <f>"'"&amp;C22&amp;"': ['"&amp;D22&amp;"', "&amp;E22&amp;"],"</f>
-        <v>'怎么': ['讨论', 6],</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="1">
-        <v>22</v>
-      </c>
+        <v>'9元': ['交易', 3],</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F23" s="2" t="str">
         <f>"'"&amp;C23&amp;"': ['"&amp;D23&amp;"', "&amp;E23&amp;"],"</f>
-        <v>'登陆': ['发行', 7],</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="1">
-        <v>23</v>
-      </c>
+        <v>'万元': ['交易', 3],</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E24" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F24" s="2" t="str">
         <f>"'"&amp;C24&amp;"': ['"&amp;D24&amp;"', "&amp;E24&amp;"],"</f>
-        <v>'发布': ['发行', 7],</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="1">
-        <v>24</v>
-      </c>
+        <v>'万美元': ['交易', 3],</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E25" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F25" s="2" t="str">
         <f>"'"&amp;C25&amp;"': ['"&amp;D25&amp;"', "&amp;E25&amp;"],"</f>
-        <v>'发售': ['发行', 7],</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="1">
-        <v>25</v>
-      </c>
+        <v>'万欧元': ['交易', 3],</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E26" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F26" s="2" t="str">
         <f>"'"&amp;C26&amp;"': ['"&amp;D26&amp;"', "&amp;E26&amp;"],"</f>
-        <v>'热搜': ['发行', 7],</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="1">
-        <v>26</v>
-      </c>
+        <v>'亿元': ['交易', 3],</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E27" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F27" s="2" t="str">
         <f>"'"&amp;C27&amp;"': ['"&amp;D27&amp;"', "&amp;E27&amp;"],"</f>
-        <v>'上线': ['发行', 7],</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="1">
-        <v>27</v>
-      </c>
+        <v>'亿美元': ['交易', 3],</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E28" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F28" s="2" t="str">
         <f>"'"&amp;C28&amp;"': ['"&amp;D28&amp;"', "&amp;E28&amp;"],"</f>
-        <v>'新游': ['发行', 7],</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="1">
-        <v>28</v>
-      </c>
+        <v>'亿欧元': ['交易', 3],</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E29" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F29" s="2" t="str">
         <f>"'"&amp;C29&amp;"': ['"&amp;D29&amp;"', "&amp;E29&amp;"],"</f>
+        <v>'千元': ['交易', 3],</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f>"'"&amp;C30&amp;"': ['"&amp;D30&amp;"', "&amp;E30&amp;"],"</f>
+        <v>'千美元': ['交易', 3],</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f>"'"&amp;C31&amp;"': ['"&amp;D31&amp;"', "&amp;E31&amp;"],"</f>
+        <v>'千欧元': ['交易', 3],</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="1">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f>"'"&amp;C32&amp;"': ['"&amp;D32&amp;"', "&amp;E32&amp;"],"</f>
+        <v>'年': ['历史', 4],</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f>"'"&amp;C33&amp;"': ['"&amp;D33&amp;"', "&amp;E33&amp;"],"</f>
+        <v>'月': ['历史', 4],</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f>"'"&amp;C34&amp;"': ['"&amp;D34&amp;"', "&amp;E34&amp;"],"</f>
+        <v>'曾经': ['历史', 4],</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f>"'"&amp;C35&amp;"': ['"&amp;D35&amp;"', "&amp;E35&amp;"],"</f>
+        <v>'%': ['数据', 5],</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f>"'"&amp;C36&amp;"': ['"&amp;D36&amp;"', "&amp;E36&amp;"],"</f>
+        <v>'增长': ['数据', 5],</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5</v>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f>"'"&amp;C37&amp;"': ['"&amp;D37&amp;"', "&amp;E37&amp;"],"</f>
+        <v>'减少': ['数据', 5],</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="1">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f>"'"&amp;C38&amp;"': ['"&amp;D38&amp;"', "&amp;E38&amp;"],"</f>
+        <v>'同比': ['数据', 5],</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="1">
+        <v>5</v>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f>"'"&amp;C39&amp;"': ['"&amp;D39&amp;"', "&amp;E39&amp;"],"</f>
+        <v>'环比': ['数据', 5],</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="1">
+        <v>6</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f>"'"&amp;C40&amp;"': ['"&amp;D40&amp;"', "&amp;E40&amp;"],"</f>
+        <v>'？': ['讨论', 6],</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="1">
+        <v>6</v>
+      </c>
+      <c r="F41" s="2" t="str">
+        <f>"'"&amp;C41&amp;"': ['"&amp;D41&amp;"', "&amp;E41&amp;"],"</f>
+        <v>'?': ['讨论', 6],</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="1">
+        <v>6</v>
+      </c>
+      <c r="F42" s="2" t="str">
+        <f>"'"&amp;C42&amp;"': ['"&amp;D42&amp;"', "&amp;E42&amp;"],"</f>
+        <v>'吗': ['讨论', 6],</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="1">
+        <v>6</v>
+      </c>
+      <c r="F43" s="2" t="str">
+        <f>"'"&amp;C43&amp;"': ['"&amp;D43&amp;"', "&amp;E43&amp;"],"</f>
+        <v>'如何': ['讨论', 6],</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="1">
+        <v>6</v>
+      </c>
+      <c r="F44" s="2" t="str">
+        <f>"'"&amp;C44&amp;"': ['"&amp;D44&amp;"', "&amp;E44&amp;"],"</f>
+        <v>'什么': ['讨论', 6],</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="1">
+        <v>6</v>
+      </c>
+      <c r="F45" s="2" t="str">
+        <f>"'"&amp;C45&amp;"': ['"&amp;D45&amp;"', "&amp;E45&amp;"],"</f>
+        <v>'怎么': ['讨论', 6],</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="1">
+        <v>7</v>
+      </c>
+      <c r="F46" s="2" t="str">
+        <f>"'"&amp;C46&amp;"': ['"&amp;D46&amp;"', "&amp;E46&amp;"],"</f>
+        <v>'登陆': ['发行', 7],</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="1">
+        <v>7</v>
+      </c>
+      <c r="F47" s="2" t="str">
+        <f>"'"&amp;C47&amp;"': ['"&amp;D47&amp;"', "&amp;E47&amp;"],"</f>
+        <v>'发布': ['发行', 7],</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="1">
+        <v>7</v>
+      </c>
+      <c r="F48" s="2" t="str">
+        <f>"'"&amp;C48&amp;"': ['"&amp;D48&amp;"', "&amp;E48&amp;"],"</f>
+        <v>'发售': ['发行', 7],</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="1">
+        <v>7</v>
+      </c>
+      <c r="F49" s="2" t="str">
+        <f>"'"&amp;C49&amp;"': ['"&amp;D49&amp;"', "&amp;E49&amp;"],"</f>
+        <v>'热搜': ['发行', 7],</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="1">
+        <v>7</v>
+      </c>
+      <c r="F50" s="2" t="str">
+        <f>"'"&amp;C50&amp;"': ['"&amp;D50&amp;"', "&amp;E50&amp;"],"</f>
+        <v>'上线': ['发行', 7],</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="1">
+        <v>7</v>
+      </c>
+      <c r="F51" s="2" t="str">
+        <f>"'"&amp;C51&amp;"': ['"&amp;D51&amp;"', "&amp;E51&amp;"],"</f>
+        <v>'新游': ['发行', 7],</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="1">
+        <v>7</v>
+      </c>
+      <c r="F52" s="2" t="str">
+        <f>"'"&amp;C52&amp;"': ['"&amp;D52&amp;"', "&amp;E52&amp;"],"</f>
+        <v>'预告': ['发行', 7],</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="1">
+        <v>7</v>
+      </c>
+      <c r="F53" s="2" t="str">
+        <f>"'"&amp;C53&amp;"': ['"&amp;D53&amp;"', "&amp;E53&amp;"],"</f>
+        <v>'试玩': ['发行', 7],</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="1">
+        <v>7</v>
+      </c>
+      <c r="F54" s="2" t="str">
+        <f>"'"&amp;C54&amp;"': ['"&amp;D54&amp;"', "&amp;E54&amp;"],"</f>
+        <v>'预热': ['发行', 7],</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="1">
+        <v>7</v>
+      </c>
+      <c r="F55" s="2" t="str">
+        <f>"'"&amp;C55&amp;"': ['"&amp;D55&amp;"', "&amp;E55&amp;"],"</f>
+        <v>'曝光': ['发行', 7],</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="1">
+        <v>8</v>
+      </c>
+      <c r="F56" s="2" t="str">
+        <f>"'"&amp;C56&amp;"': ['"&amp;D56&amp;"', "&amp;E56&amp;"],"</f>
         <v>'《': ['作品', 8],</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:F20" xr:uid="{4758F983-06CD-41D5-B024-F66B59648892}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F29">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F56">
       <sortCondition ref="E1:E20"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/gamedaily/topic-fix.xlsx
+++ b/gamedaily/topic-fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydesk\git\game1night\2\gamedaily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F78361-1807-4500-A481-D4A2FDD5B241}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B553C8-6D88-4DE8-97F5-0752D8CBF0FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE488E7B-B399-4947-B8FB-F010B48E0251}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
   <si>
     <t>关键词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +309,18 @@
   </si>
   <si>
     <t>曝光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B629B35-FB0A-463B-8067-A275E1A6B003}">
-  <dimension ref="B1:F56"/>
+  <dimension ref="B1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -741,22 +753,22 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="str">
         <f>"'"&amp;C4&amp;"': ['"&amp;D4&amp;"', "&amp;E4&amp;"],"</f>
-        <v>'开发': ['人物', 2],</v>
+        <v>'概念图': ['人物', 2],</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>38</v>
@@ -766,72 +778,72 @@
       </c>
       <c r="F5" s="2" t="str">
         <f>"'"&amp;C5&amp;"': ['"&amp;D5&amp;"', "&amp;E5&amp;"],"</f>
-        <v>'制作': ['人物', 2],</v>
+        <v>'开发': ['人物', 2],</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
       </c>
       <c r="F6" s="2" t="str">
         <f>"'"&amp;C6&amp;"': ['"&amp;D6&amp;"', "&amp;E6&amp;"],"</f>
-        <v>'概念图': ['人物', 2],</v>
+        <v>'制作': ['人物', 2],</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
       </c>
       <c r="F7" s="2" t="str">
         <f>"'"&amp;C7&amp;"': ['"&amp;D7&amp;"', "&amp;E7&amp;"],"</f>
-        <v>'卖': ['交易', 3],</v>
+        <v>'0元': ['交易', 3],</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
       </c>
       <c r="F8" s="2" t="str">
         <f>"'"&amp;C8&amp;"': ['"&amp;D8&amp;"', "&amp;E8&amp;"],"</f>
-        <v>'买': ['交易', 3],</v>
+        <v>'1元': ['交易', 3],</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
       </c>
       <c r="F9" s="2" t="str">
         <f>"'"&amp;C9&amp;"': ['"&amp;D9&amp;"', "&amp;E9&amp;"],"</f>
-        <v>'价': ['交易', 3],</v>
+        <v>'2元': ['交易', 3],</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>42</v>
@@ -841,12 +853,12 @@
       </c>
       <c r="F10" s="2" t="str">
         <f>"'"&amp;C10&amp;"': ['"&amp;D10&amp;"', "&amp;E10&amp;"],"</f>
-        <v>'奖金': ['交易', 3],</v>
+        <v>'3元': ['交易', 3],</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>42</v>
@@ -856,12 +868,12 @@
       </c>
       <c r="F11" s="2" t="str">
         <f>"'"&amp;C11&amp;"': ['"&amp;D11&amp;"', "&amp;E11&amp;"],"</f>
-        <v>'美元': ['交易', 3],</v>
+        <v>'4元': ['交易', 3],</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>42</v>
@@ -871,12 +883,12 @@
       </c>
       <c r="F12" s="2" t="str">
         <f>"'"&amp;C12&amp;"': ['"&amp;D12&amp;"', "&amp;E12&amp;"],"</f>
-        <v>'欧元': ['交易', 3],</v>
+        <v>'5元': ['交易', 3],</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>42</v>
@@ -886,12 +898,12 @@
       </c>
       <c r="F13" s="2" t="str">
         <f>"'"&amp;C13&amp;"': ['"&amp;D13&amp;"', "&amp;E13&amp;"],"</f>
-        <v>'0元': ['交易', 3],</v>
+        <v>'6元': ['交易', 3],</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>42</v>
@@ -901,12 +913,12 @@
       </c>
       <c r="F14" s="2" t="str">
         <f>"'"&amp;C14&amp;"': ['"&amp;D14&amp;"', "&amp;E14&amp;"],"</f>
-        <v>'1元': ['交易', 3],</v>
+        <v>'7元': ['交易', 3],</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>42</v>
@@ -916,12 +928,12 @@
       </c>
       <c r="F15" s="2" t="str">
         <f>"'"&amp;C15&amp;"': ['"&amp;D15&amp;"', "&amp;E15&amp;"],"</f>
-        <v>'2元': ['交易', 3],</v>
+        <v>'8元': ['交易', 3],</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>42</v>
@@ -931,27 +943,27 @@
       </c>
       <c r="F16" s="2" t="str">
         <f>"'"&amp;C16&amp;"': ['"&amp;D16&amp;"', "&amp;E16&amp;"],"</f>
-        <v>'3元': ['交易', 3],</v>
+        <v>'9元': ['交易', 3],</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1">
         <v>3</v>
       </c>
       <c r="F17" s="2" t="str">
         <f>"'"&amp;C17&amp;"': ['"&amp;D17&amp;"', "&amp;E17&amp;"],"</f>
-        <v>'4元': ['交易', 3],</v>
+        <v>'价': ['交易', 3],</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>42</v>
@@ -961,42 +973,42 @@
       </c>
       <c r="F18" s="2" t="str">
         <f>"'"&amp;C18&amp;"': ['"&amp;D18&amp;"', "&amp;E18&amp;"],"</f>
-        <v>'5元': ['交易', 3],</v>
+        <v>'奖金': ['交易', 3],</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
       </c>
       <c r="F19" s="2" t="str">
         <f>"'"&amp;C19&amp;"': ['"&amp;D19&amp;"', "&amp;E19&amp;"],"</f>
-        <v>'6元': ['交易', 3],</v>
+        <v>'买': ['交易', 3],</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
       </c>
       <c r="F20" s="2" t="str">
         <f>"'"&amp;C20&amp;"': ['"&amp;D20&amp;"', "&amp;E20&amp;"],"</f>
-        <v>'7元': ['交易', 3],</v>
+        <v>'卖': ['交易', 3],</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>42</v>
@@ -1006,12 +1018,12 @@
       </c>
       <c r="F21" s="2" t="str">
         <f>"'"&amp;C21&amp;"': ['"&amp;D21&amp;"', "&amp;E21&amp;"],"</f>
-        <v>'8元': ['交易', 3],</v>
+        <v>'美元': ['交易', 3],</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>42</v>
@@ -1021,12 +1033,12 @@
       </c>
       <c r="F22" s="2" t="str">
         <f>"'"&amp;C22&amp;"': ['"&amp;D22&amp;"', "&amp;E22&amp;"],"</f>
-        <v>'9元': ['交易', 3],</v>
+        <v>'欧元': ['交易', 3],</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>42</v>
@@ -1036,12 +1048,12 @@
       </c>
       <c r="F23" s="2" t="str">
         <f>"'"&amp;C23&amp;"': ['"&amp;D23&amp;"', "&amp;E23&amp;"],"</f>
-        <v>'万元': ['交易', 3],</v>
+        <v>'千美元': ['交易', 3],</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>42</v>
@@ -1051,12 +1063,12 @@
       </c>
       <c r="F24" s="2" t="str">
         <f>"'"&amp;C24&amp;"': ['"&amp;D24&amp;"', "&amp;E24&amp;"],"</f>
-        <v>'万美元': ['交易', 3],</v>
+        <v>'千欧元': ['交易', 3],</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>42</v>
@@ -1066,12 +1078,12 @@
       </c>
       <c r="F25" s="2" t="str">
         <f>"'"&amp;C25&amp;"': ['"&amp;D25&amp;"', "&amp;E25&amp;"],"</f>
-        <v>'万欧元': ['交易', 3],</v>
+        <v>'千元': ['交易', 3],</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>42</v>
@@ -1081,12 +1093,12 @@
       </c>
       <c r="F26" s="2" t="str">
         <f>"'"&amp;C26&amp;"': ['"&amp;D26&amp;"', "&amp;E26&amp;"],"</f>
-        <v>'亿元': ['交易', 3],</v>
+        <v>'万美元': ['交易', 3],</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>42</v>
@@ -1096,12 +1108,12 @@
       </c>
       <c r="F27" s="2" t="str">
         <f>"'"&amp;C27&amp;"': ['"&amp;D27&amp;"', "&amp;E27&amp;"],"</f>
-        <v>'亿美元': ['交易', 3],</v>
+        <v>'万欧元': ['交易', 3],</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>42</v>
@@ -1111,12 +1123,12 @@
       </c>
       <c r="F28" s="2" t="str">
         <f>"'"&amp;C28&amp;"': ['"&amp;D28&amp;"', "&amp;E28&amp;"],"</f>
-        <v>'亿欧元': ['交易', 3],</v>
+        <v>'万元': ['交易', 3],</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>42</v>
@@ -1126,12 +1138,12 @@
       </c>
       <c r="F29" s="2" t="str">
         <f>"'"&amp;C29&amp;"': ['"&amp;D29&amp;"', "&amp;E29&amp;"],"</f>
-        <v>'千元': ['交易', 3],</v>
+        <v>'亿美元': ['交易', 3],</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>42</v>
@@ -1141,12 +1153,12 @@
       </c>
       <c r="F30" s="2" t="str">
         <f>"'"&amp;C30&amp;"': ['"&amp;D30&amp;"', "&amp;E30&amp;"],"</f>
-        <v>'千美元': ['交易', 3],</v>
+        <v>'亿欧元': ['交易', 3],</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>42</v>
@@ -1156,12 +1168,12 @@
       </c>
       <c r="F31" s="2" t="str">
         <f>"'"&amp;C31&amp;"': ['"&amp;D31&amp;"', "&amp;E31&amp;"],"</f>
-        <v>'千欧元': ['交易', 3],</v>
+        <v>'亿元': ['交易', 3],</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>25</v>
@@ -1171,12 +1183,12 @@
       </c>
       <c r="F32" s="2" t="str">
         <f>"'"&amp;C32&amp;"': ['"&amp;D32&amp;"', "&amp;E32&amp;"],"</f>
-        <v>'年': ['历史', 4],</v>
+        <v>'曾经': ['历史', 4],</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>25</v>
@@ -1186,12 +1198,12 @@
       </c>
       <c r="F33" s="2" t="str">
         <f>"'"&amp;C33&amp;"': ['"&amp;D33&amp;"', "&amp;E33&amp;"],"</f>
-        <v>'月': ['历史', 4],</v>
+        <v>'年': ['历史', 4],</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>25</v>
@@ -1201,7 +1213,7 @@
       </c>
       <c r="F34" s="2" t="str">
         <f>"'"&amp;C34&amp;"': ['"&amp;D34&amp;"', "&amp;E34&amp;"],"</f>
-        <v>'曾经': ['历史', 4],</v>
+        <v>'月': ['历史', 4],</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
@@ -1221,22 +1233,22 @@
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="E36" s="1">
         <v>5</v>
       </c>
       <c r="F36" s="2" t="str">
         <f>"'"&amp;C36&amp;"': ['"&amp;D36&amp;"', "&amp;E36&amp;"],"</f>
-        <v>'增长': ['数据', 5],</v>
+        <v>'分析': ['数据', 5],</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>26</v>
@@ -1246,12 +1258,12 @@
       </c>
       <c r="F37" s="2" t="str">
         <f>"'"&amp;C37&amp;"': ['"&amp;D37&amp;"', "&amp;E37&amp;"],"</f>
-        <v>'减少': ['数据', 5],</v>
+        <v>'环比': ['数据', 5],</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>26</v>
@@ -1261,12 +1273,12 @@
       </c>
       <c r="F38" s="2" t="str">
         <f>"'"&amp;C38&amp;"': ['"&amp;D38&amp;"', "&amp;E38&amp;"],"</f>
-        <v>'同比': ['数据', 5],</v>
+        <v>'减少': ['数据', 5],</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>26</v>
@@ -1276,42 +1288,42 @@
       </c>
       <c r="F39" s="2" t="str">
         <f>"'"&amp;C39&amp;"': ['"&amp;D39&amp;"', "&amp;E39&amp;"],"</f>
-        <v>'环比': ['数据', 5],</v>
+        <v>'同比': ['数据', 5],</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="E40" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" s="2" t="str">
         <f>"'"&amp;C40&amp;"': ['"&amp;D40&amp;"', "&amp;E40&amp;"],"</f>
-        <v>'？': ['讨论', 6],</v>
+        <v>'研究': ['数据', 5],</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" s="2" t="str">
         <f>"'"&amp;C41&amp;"': ['"&amp;D41&amp;"', "&amp;E41&amp;"],"</f>
-        <v>'?': ['讨论', 6],</v>
+        <v>'增长': ['数据', 5],</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>27</v>
@@ -1321,12 +1333,12 @@
       </c>
       <c r="F42" s="2" t="str">
         <f>"'"&amp;C42&amp;"': ['"&amp;D42&amp;"', "&amp;E42&amp;"],"</f>
-        <v>'吗': ['讨论', 6],</v>
+        <v>'？': ['讨论', 6],</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>27</v>
@@ -1336,12 +1348,12 @@
       </c>
       <c r="F43" s="2" t="str">
         <f>"'"&amp;C43&amp;"': ['"&amp;D43&amp;"', "&amp;E43&amp;"],"</f>
-        <v>'如何': ['讨论', 6],</v>
+        <v>'?': ['讨论', 6],</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>27</v>
@@ -1351,12 +1363,12 @@
       </c>
       <c r="F44" s="2" t="str">
         <f>"'"&amp;C44&amp;"': ['"&amp;D44&amp;"', "&amp;E44&amp;"],"</f>
-        <v>'什么': ['讨论', 6],</v>
+        <v>'吗': ['讨论', 6],</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>27</v>
@@ -1366,42 +1378,42 @@
       </c>
       <c r="F45" s="2" t="str">
         <f>"'"&amp;C45&amp;"': ['"&amp;D45&amp;"', "&amp;E45&amp;"],"</f>
-        <v>'怎么': ['讨论', 6],</v>
+        <v>'如何': ['讨论', 6],</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E46" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" s="2" t="str">
         <f>"'"&amp;C46&amp;"': ['"&amp;D46&amp;"', "&amp;E46&amp;"],"</f>
-        <v>'登陆': ['发行', 7],</v>
+        <v>'什么': ['讨论', 6],</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E47" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F47" s="2" t="str">
         <f>"'"&amp;C47&amp;"': ['"&amp;D47&amp;"', "&amp;E47&amp;"],"</f>
-        <v>'发布': ['发行', 7],</v>
+        <v>'怎么': ['讨论', 6],</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>31</v>
@@ -1411,12 +1423,12 @@
       </c>
       <c r="F48" s="2" t="str">
         <f>"'"&amp;C48&amp;"': ['"&amp;D48&amp;"', "&amp;E48&amp;"],"</f>
-        <v>'发售': ['发行', 7],</v>
+        <v>'登陆': ['发行', 7],</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>31</v>
@@ -1426,12 +1438,12 @@
       </c>
       <c r="F49" s="2" t="str">
         <f>"'"&amp;C49&amp;"': ['"&amp;D49&amp;"', "&amp;E49&amp;"],"</f>
-        <v>'热搜': ['发行', 7],</v>
+        <v>'发布': ['发行', 7],</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>31</v>
@@ -1441,57 +1453,57 @@
       </c>
       <c r="F50" s="2" t="str">
         <f>"'"&amp;C50&amp;"': ['"&amp;D50&amp;"', "&amp;E50&amp;"],"</f>
-        <v>'上线': ['发行', 7],</v>
+        <v>'发售': ['发行', 7],</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="E51" s="1">
         <v>7</v>
       </c>
       <c r="F51" s="2" t="str">
         <f>"'"&amp;C51&amp;"': ['"&amp;D51&amp;"', "&amp;E51&amp;"],"</f>
-        <v>'新游': ['发行', 7],</v>
+        <v>'曝光': ['发行', 7],</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E52" s="1">
         <v>7</v>
       </c>
       <c r="F52" s="2" t="str">
         <f>"'"&amp;C52&amp;"': ['"&amp;D52&amp;"', "&amp;E52&amp;"],"</f>
-        <v>'预告': ['发行', 7],</v>
+        <v>'热搜': ['发行', 7],</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E53" s="1">
         <v>7</v>
       </c>
       <c r="F53" s="2" t="str">
         <f>"'"&amp;C53&amp;"': ['"&amp;D53&amp;"', "&amp;E53&amp;"],"</f>
-        <v>'试玩': ['发行', 7],</v>
+        <v>'上线': ['发行', 7],</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>66</v>
@@ -1501,42 +1513,72 @@
       </c>
       <c r="F54" s="2" t="str">
         <f>"'"&amp;C54&amp;"': ['"&amp;D54&amp;"', "&amp;E54&amp;"],"</f>
-        <v>'预热': ['发行', 7],</v>
+        <v>'试玩': ['发行', 7],</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E55" s="1">
         <v>7</v>
       </c>
       <c r="F55" s="2" t="str">
         <f>"'"&amp;C55&amp;"': ['"&amp;D55&amp;"', "&amp;E55&amp;"],"</f>
-        <v>'曝光': ['发行', 7],</v>
+        <v>'新游': ['发行', 7],</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E56" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" s="2" t="str">
         <f>"'"&amp;C56&amp;"': ['"&amp;D56&amp;"', "&amp;E56&amp;"],"</f>
+        <v>'预告': ['发行', 7],</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="1">
+        <v>7</v>
+      </c>
+      <c r="F57" s="2" t="str">
+        <f>"'"&amp;C57&amp;"': ['"&amp;D57&amp;"', "&amp;E57&amp;"],"</f>
+        <v>'预热': ['发行', 7],</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="1">
+        <v>8</v>
+      </c>
+      <c r="F58" s="2" t="str">
+        <f>"'"&amp;C58&amp;"': ['"&amp;D58&amp;"', "&amp;E58&amp;"],"</f>
         <v>'《': ['作品', 8],</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:F20" xr:uid="{4758F983-06CD-41D5-B024-F66B59648892}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F56">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F58">
       <sortCondition ref="E1:E20"/>
     </sortState>
   </autoFilter>

--- a/gamedaily/topic-fix.xlsx
+++ b/gamedaily/topic-fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydesk\git\game1night\2\gamedaily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B553C8-6D88-4DE8-97F5-0752D8CBF0FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C551E9-0E07-42F7-B73D-427F5FFA59D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE488E7B-B399-4947-B8FB-F010B48E0251}"/>
   </bookViews>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B629B35-FB0A-463B-8067-A275E1A6B003}">
   <dimension ref="B1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
